--- a/data/trans_orig/P2C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>94824</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79093</v>
+        <v>78617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110717</v>
+        <v>110539</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3473272257796481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2897087642291074</v>
+        <v>0.2879622103427777</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.405542661636559</v>
+        <v>0.4048887947859614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -765,19 +765,19 @@
         <v>112539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96415</v>
+        <v>96574</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128141</v>
+        <v>128399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4314522992896171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3696364945803383</v>
+        <v>0.3702449300075426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4912662461532322</v>
+        <v>0.4922571795575427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>195</v>
@@ -786,19 +786,19 @@
         <v>207363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>182704</v>
+        <v>184471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230181</v>
+        <v>229241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3884307277373601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3422389900967894</v>
+        <v>0.3455491171892864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4311726528531293</v>
+        <v>0.4294130950785142</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>178186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162293</v>
+        <v>162471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193917</v>
+        <v>194393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6526727742203519</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5944573383634411</v>
+        <v>0.5951112052140386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7102912357708926</v>
+        <v>0.7120377896572223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -836,19 +836,19 @@
         <v>148299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>132697</v>
+        <v>132439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>164423</v>
+        <v>164264</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5685477007103829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5087337538467679</v>
+        <v>0.5077428204424571</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6303635054196617</v>
+        <v>0.6297550699924573</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>321</v>
@@ -857,19 +857,19 @@
         <v>326485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>303667</v>
+        <v>304607</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>351144</v>
+        <v>349377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6115692722626398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5688273471468707</v>
+        <v>0.5705869049214859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6577610099032107</v>
+        <v>0.6544508828107137</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>113545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95934</v>
+        <v>96413</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134179</v>
+        <v>134910</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2302797372584534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1945616935250503</v>
+        <v>0.1955339378492941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2721271795427735</v>
+        <v>0.2736085375378647</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -982,19 +982,19 @@
         <v>155235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>133945</v>
+        <v>136460</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>177524</v>
+        <v>177549</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3080368265398663</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2657913150488443</v>
+        <v>0.2707817898625292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3522665797492219</v>
+        <v>0.3523160830645444</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>259</v>
@@ -1003,19 +1003,19 @@
         <v>268780</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239300</v>
+        <v>243551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>298346</v>
+        <v>298169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2695823070906153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2400143008143496</v>
+        <v>0.24427800739443</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2992362642686762</v>
+        <v>0.2990585004551574</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>379530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>358896</v>
+        <v>358165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397141</v>
+        <v>396662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7697202627415466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7278728204572266</v>
+        <v>0.7263914624621346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8054383064749497</v>
+        <v>0.8044660621507059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -1053,19 +1053,19 @@
         <v>348714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326425</v>
+        <v>326400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370004</v>
+        <v>367489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6919631734601337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6477334202507784</v>
+        <v>0.6476839169354557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7342086849511558</v>
+        <v>0.7292182101374709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>705</v>
@@ -1074,19 +1074,19 @@
         <v>728244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>698678</v>
+        <v>698855</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>757724</v>
+        <v>753473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7304176929093847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7007637357313237</v>
+        <v>0.7009414995448424</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7599856991856504</v>
+        <v>0.7557219926055699</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>108657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91852</v>
+        <v>92657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126987</v>
+        <v>127336</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3407815279587403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2880751936593239</v>
+        <v>0.2906005257776475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3982716664344653</v>
+        <v>0.3993654367952224</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1199,19 +1199,19 @@
         <v>119862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103421</v>
+        <v>101932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137054</v>
+        <v>135957</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3573583441259184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.308339335270585</v>
+        <v>0.3039007409419559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4086150005652049</v>
+        <v>0.4053443482283486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -1220,19 +1220,19 @@
         <v>228519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205511</v>
+        <v>205339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>254625</v>
+        <v>252992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3492798020826425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3141131761050098</v>
+        <v>0.3138505034044837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3891811759918813</v>
+        <v>0.3866847776578677</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>210189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>191859</v>
+        <v>191510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>226994</v>
+        <v>226189</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6592184720412597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6017283335655347</v>
+        <v>0.6006345632047776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7119248063406761</v>
+        <v>0.7093994742223524</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>216</v>
@@ -1270,19 +1270,19 @@
         <v>215550</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>198358</v>
+        <v>199455</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231991</v>
+        <v>233480</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6426416558740815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5913849994347951</v>
+        <v>0.5946556517716513</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.691660664729415</v>
+        <v>0.6960992590580442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>421</v>
@@ -1291,19 +1291,19 @@
         <v>425739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>399633</v>
+        <v>401266</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>448747</v>
+        <v>448919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6507201979173575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6108188240081185</v>
+        <v>0.6133152223421322</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6858868238949901</v>
+        <v>0.6861494965955164</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>104164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88387</v>
+        <v>88198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122600</v>
+        <v>121822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2904154491360499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2464292493738699</v>
+        <v>0.245902724981911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3418179388498548</v>
+        <v>0.3396490773910663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -1416,19 +1416,19 @@
         <v>142425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124341</v>
+        <v>124934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161416</v>
+        <v>160356</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.383424593433291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.334739587244707</v>
+        <v>0.3363365219988009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4345502694384047</v>
+        <v>0.4316960511873518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>250</v>
@@ -1437,19 +1437,19 @@
         <v>246589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221384</v>
+        <v>222416</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272596</v>
+        <v>272105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3377343372292596</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3032129236889136</v>
+        <v>0.3046261028902781</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.373354004804255</v>
+        <v>0.3726819058784375</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>254507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>236071</v>
+        <v>236849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270284</v>
+        <v>270473</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.70958455086395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6581820611501451</v>
+        <v>0.6603509226089337</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7535707506261301</v>
+        <v>0.754097275018089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -1487,19 +1487,19 @@
         <v>229031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>210040</v>
+        <v>211100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247115</v>
+        <v>246522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.616575406566709</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.565449730561595</v>
+        <v>0.5683039488126481</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6652604127552929</v>
+        <v>0.6636634780011992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -1508,19 +1508,19 @@
         <v>483538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>457531</v>
+        <v>458022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>508743</v>
+        <v>507711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6622656627707404</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6266459951957449</v>
+        <v>0.6273180941215627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6967870763110865</v>
+        <v>0.6953738971097221</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>47363</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35970</v>
+        <v>35746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60862</v>
+        <v>59591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2329632568777234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.176925211964778</v>
+        <v>0.1758241832890085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2993607141309101</v>
+        <v>0.2931094606576957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1633,19 +1633,19 @@
         <v>63216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50759</v>
+        <v>50915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76847</v>
+        <v>77381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3044068825070802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2444257625100131</v>
+        <v>0.2451761691581485</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3700476198870272</v>
+        <v>0.3726203076123028</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -1654,19 +1654,19 @@
         <v>110579</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95230</v>
+        <v>92964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129992</v>
+        <v>128743</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2690640345061991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2317162784116366</v>
+        <v>0.2262041144399983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3163004830626225</v>
+        <v>0.3132619369733821</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>155945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142446</v>
+        <v>143717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167338</v>
+        <v>167562</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7670367431222767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7006392858690905</v>
+        <v>0.7068905393423042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8230747880352228</v>
+        <v>0.8241758167109916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>137</v>
@@ -1704,19 +1704,19 @@
         <v>144452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130821</v>
+        <v>130287</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156909</v>
+        <v>156753</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6955931174929197</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6299523801129729</v>
+        <v>0.6273796923876971</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.755574237489987</v>
+        <v>0.7548238308418515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>294</v>
@@ -1725,19 +1725,19 @@
         <v>300397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280984</v>
+        <v>282233</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>315746</v>
+        <v>318012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7309359654938009</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6836995169373774</v>
+        <v>0.6867380630266178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7682837215883634</v>
+        <v>0.7737958855600013</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>95147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80010</v>
+        <v>80190</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112459</v>
+        <v>111159</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3513422523803142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2954442834956736</v>
+        <v>0.2961119463134467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4152671711639616</v>
+        <v>0.4104676733709735</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1850,19 +1850,19 @@
         <v>81888</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68288</v>
+        <v>67654</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98976</v>
+        <v>97644</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2944098047696511</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2455121401481772</v>
+        <v>0.2432341603475367</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3558454251219516</v>
+        <v>0.3510546929578955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -1871,19 +1871,19 @@
         <v>177036</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157076</v>
+        <v>155167</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202135</v>
+        <v>198293</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3224957739022863</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2861372171694218</v>
+        <v>0.2826586408502444</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3682177381877517</v>
+        <v>0.3612182839601495</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>175664</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158352</v>
+        <v>159652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190801</v>
+        <v>190621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6486577476196858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5847328288360385</v>
+        <v>0.5895323266290263</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7045557165043264</v>
+        <v>0.7038880536865531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -1921,19 +1921,19 @@
         <v>196256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179168</v>
+        <v>180500</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209856</v>
+        <v>210490</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7055901952303489</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6441545748780485</v>
+        <v>0.6489453070421047</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7544878598518229</v>
+        <v>0.7567658396524634</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>365</v>
@@ -1942,19 +1942,19 @@
         <v>371919</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>346820</v>
+        <v>350662</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>391879</v>
+        <v>393788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6775042260977138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6317822618122485</v>
+        <v>0.6387817160398503</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7138627828305782</v>
+        <v>0.7173413591497556</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>177448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>155003</v>
+        <v>154767</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201360</v>
+        <v>203190</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2885211475981115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2520264736210782</v>
+        <v>0.2516422719957323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.32740023047405</v>
+        <v>0.3303760580398458</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>242</v>
@@ -2067,19 +2067,19 @@
         <v>249996</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>226930</v>
+        <v>224785</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>277713</v>
+        <v>275182</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3917080832683441</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3555678883470504</v>
+        <v>0.3522059306893414</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4351376890060053</v>
+        <v>0.4311714321838828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>411</v>
@@ -2088,19 +2088,19 @@
         <v>427444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>397886</v>
+        <v>398721</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>462495</v>
+        <v>462445</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3410693820498458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3174842238242003</v>
+        <v>0.3181508258654661</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3690377608235636</v>
+        <v>0.368997451362829</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>437579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>413667</v>
+        <v>411837</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>460024</v>
+        <v>460260</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7114788524018885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.67259976952595</v>
+        <v>0.6696239419601542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7479735263789219</v>
+        <v>0.7483577280042677</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>379</v>
@@ -2138,19 +2138,19 @@
         <v>388223</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>360506</v>
+        <v>363037</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>411289</v>
+        <v>413434</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6082919167316559</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5648623109939948</v>
+        <v>0.5688285678161171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6444321116529496</v>
+        <v>0.6477940693106586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>808</v>
@@ -2159,19 +2159,19 @@
         <v>825802</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>790751</v>
+        <v>790801</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>855360</v>
+        <v>854525</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6589306179501542</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6309622391764366</v>
+        <v>0.631002548637171</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6825157761757997</v>
+        <v>0.6818491741345339</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>214285</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189224</v>
+        <v>188713</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>238484</v>
+        <v>239087</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2880965141833523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2544037971727317</v>
+        <v>0.2537168263202044</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3206313870359341</v>
+        <v>0.3214427240765246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -2284,19 +2284,19 @@
         <v>241763</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>217871</v>
+        <v>216123</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>268616</v>
+        <v>269323</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3085632435518901</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2780700464202994</v>
+        <v>0.2758390068924449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3428360742552789</v>
+        <v>0.3437381962804125</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>435</v>
@@ -2305,19 +2305,19 @@
         <v>456047</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>420961</v>
+        <v>418694</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>496126</v>
+        <v>491998</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2985959865581019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2756232352654911</v>
+        <v>0.2741391611768209</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3248373276059187</v>
+        <v>0.3221347358080995</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>529510</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>505311</v>
+        <v>504708</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>554571</v>
+        <v>555082</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7119034858166476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.679368612964066</v>
+        <v>0.6785572759234753</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7455962028272681</v>
+        <v>0.7462831736797956</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>519</v>
@@ -2355,19 +2355,19 @@
         <v>541748</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>514895</v>
+        <v>514188</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>565640</v>
+        <v>567388</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6914367564481099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.657163925744721</v>
+        <v>0.6562618037195876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7219299535797006</v>
+        <v>0.7241609931075553</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1046</v>
@@ -2376,19 +2376,19 @@
         <v>1071259</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1031180</v>
+        <v>1035308</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1106345</v>
+        <v>1108612</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7014040134418981</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6751626723940813</v>
+        <v>0.6778652641918999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.724376764734509</v>
+        <v>0.7258608388231778</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>955433</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2915979110211142</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1127</v>
@@ -2501,19 +2501,19 @@
         <v>1166924</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3453257670591905</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2055</v>
@@ -2522,19 +2522,19 @@
         <v>2122357</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3188761714903631</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2321110</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2271482</v>
+        <v>2263360</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2371829</v>
+        <v>2371625</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7084020889788859</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6932557195000432</v>
+        <v>0.6907768166390297</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7238815537534786</v>
+        <v>0.7238191330293314</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2170</v>
@@ -2572,19 +2572,19 @@
         <v>2212273</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2157267</v>
+        <v>2153590</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2267757</v>
+        <v>2267398</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6546742329408095</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6383962023701257</v>
+        <v>0.6373081933065268</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.671093563313811</v>
+        <v>0.6709871708213252</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4456</v>
@@ -2593,19 +2593,19 @@
         <v>4533384</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4464900</v>
+        <v>4454636</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4617760</v>
+        <v>4608473</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6811238285096369</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6708344057576006</v>
+        <v>0.6692922511839836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6938010172039754</v>
+        <v>0.6924056514857959</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>133712</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115174</v>
+        <v>116308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150443</v>
+        <v>150814</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4536646745912606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3907680687676241</v>
+        <v>0.3946162265941811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5104285154259647</v>
+        <v>0.511688322594243</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -2962,19 +2962,19 @@
         <v>160761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>144141</v>
+        <v>143458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>179404</v>
+        <v>177120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5596665975689924</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5018045076809351</v>
+        <v>0.4994268436049304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6245678019969476</v>
+        <v>0.6166172929658863</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>274</v>
@@ -2983,19 +2983,19 @@
         <v>294474</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>264864</v>
+        <v>268649</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318788</v>
+        <v>324168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5059832487965424</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4551056010477225</v>
+        <v>0.4616092067742225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5477622116042326</v>
+        <v>0.5570058713809167</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>161026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144295</v>
+        <v>143924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179564</v>
+        <v>178430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5463353254087394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4895714845740354</v>
+        <v>0.4883116774057571</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6092319312323764</v>
+        <v>0.6053837734058189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -3033,19 +3033,19 @@
         <v>126484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107841</v>
+        <v>110125</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143104</v>
+        <v>143787</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4403334024310077</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3754321980030524</v>
+        <v>0.3833827070341137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4981954923190648</v>
+        <v>0.5005731563950695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -3054,19 +3054,19 @@
         <v>287509</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>263195</v>
+        <v>257815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>317119</v>
+        <v>313334</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4940167512034576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4522377883957673</v>
+        <v>0.4429941286190832</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5448943989522774</v>
+        <v>0.5383907932257775</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>227060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>204215</v>
+        <v>204313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251036</v>
+        <v>251171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4491543904538493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4039645100679057</v>
+        <v>0.4041582020265836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4965833128319644</v>
+        <v>0.4968507499460794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>244</v>
@@ -3179,19 +3179,19 @@
         <v>264438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>240823</v>
+        <v>239492</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>287206</v>
+        <v>286970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5048786914603129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4597922672779438</v>
+        <v>0.457250803028361</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5483492006559252</v>
+        <v>0.5478981514518483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>460</v>
@@ -3200,19 +3200,19 @@
         <v>491497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>460730</v>
+        <v>460018</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>523523</v>
+        <v>526750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4775102227642619</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4476180661884481</v>
+        <v>0.4469269769551741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.50862423652896</v>
+        <v>0.5117599219011051</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>278467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>254491</v>
+        <v>254356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>301312</v>
+        <v>301214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5508456095461507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5034166871680356</v>
+        <v>0.5031492500539206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5960354899320942</v>
+        <v>0.5958417979734164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>236</v>
@@ -3250,19 +3250,19 @@
         <v>259327</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236559</v>
+        <v>236795</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>282942</v>
+        <v>284273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4951213085396871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4516507993440746</v>
+        <v>0.4521018485481519</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5402077327220556</v>
+        <v>0.542749196971639</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>492</v>
@@ -3271,19 +3271,19 @@
         <v>537795</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>505769</v>
+        <v>502542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>568562</v>
+        <v>569274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5224897772357381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4913757634710399</v>
+        <v>0.4882400780988949</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5523819338115519</v>
+        <v>0.5530730230448259</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>145073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>128599</v>
+        <v>126824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163342</v>
+        <v>162109</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4476937722159058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3968554388945491</v>
+        <v>0.3913768112921844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5040691863877843</v>
+        <v>0.5002666026642556</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -3396,19 +3396,19 @@
         <v>174149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156166</v>
+        <v>154736</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194667</v>
+        <v>194401</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5106720069118467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4579378529708817</v>
+        <v>0.4537444465230721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5708378501943067</v>
+        <v>0.5700568102944857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>301</v>
@@ -3417,19 +3417,19 @@
         <v>319223</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>293186</v>
+        <v>292527</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344305</v>
+        <v>345454</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4799865639407343</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4408373034310548</v>
+        <v>0.4398458822688248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5176999424532599</v>
+        <v>0.5194282859799649</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>178973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160704</v>
+        <v>161937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>195447</v>
+        <v>197222</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5523062277840941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4959308136122156</v>
+        <v>0.4997333973357444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6031445611054509</v>
+        <v>0.6086231887078155</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -3467,19 +3467,19 @@
         <v>166871</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146353</v>
+        <v>146619</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184854</v>
+        <v>186284</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4893279930881533</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4291621498056933</v>
+        <v>0.4299431897055143</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5420621470291183</v>
+        <v>0.546255553476928</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>335</v>
@@ -3488,19 +3488,19 @@
         <v>345843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>320761</v>
+        <v>319612</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371880</v>
+        <v>372539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5200134360592656</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4823000575467402</v>
+        <v>0.4805717140200351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5591626965689452</v>
+        <v>0.5601541177311753</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>186183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>166224</v>
+        <v>166243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206550</v>
+        <v>206162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4978396496396108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4444716260956889</v>
+        <v>0.4445219097253761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5522994070210415</v>
+        <v>0.5512616860234715</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -3613,19 +3613,19 @@
         <v>216993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196734</v>
+        <v>196318</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>235210</v>
+        <v>235980</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5578934586870623</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5058069226477803</v>
+        <v>0.5047358654869305</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6047286175049711</v>
+        <v>0.6067098517788951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>374</v>
@@ -3634,19 +3634,19 @@
         <v>403176</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>375763</v>
+        <v>373575</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>434269</v>
+        <v>434586</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5284556872774756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4925246951188439</v>
+        <v>0.4896566029416868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5692099305172769</v>
+        <v>0.5696248026957497</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>187799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167432</v>
+        <v>167820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>207758</v>
+        <v>207739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5021603503603892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4477005929789584</v>
+        <v>0.4487383139765286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5555283739043112</v>
+        <v>0.5554780902746239</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -3684,19 +3684,19 @@
         <v>171958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153741</v>
+        <v>152971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192217</v>
+        <v>192633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4421065413129378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3952713824950289</v>
+        <v>0.3932901482211049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4941930773522195</v>
+        <v>0.4952641345130697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>341</v>
@@ -3705,19 +3705,19 @@
         <v>359757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>328664</v>
+        <v>328347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>387170</v>
+        <v>389358</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4715443127225244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4307900694827232</v>
+        <v>0.4303751973042504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.507475304881156</v>
+        <v>0.5103433970583133</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>101352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84799</v>
+        <v>85777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116481</v>
+        <v>115876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4766877260202599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3988310512407631</v>
+        <v>0.4034315489692257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5478438444519694</v>
+        <v>0.5449948102357566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>119</v>
@@ -3830,19 +3830,19 @@
         <v>124245</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>108327</v>
+        <v>107793</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>138390</v>
+        <v>139332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5658018939603316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4933126823332841</v>
+        <v>0.4908796354065986</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6302187896477042</v>
+        <v>0.6345053235397587</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>214</v>
@@ -3851,19 +3851,19 @@
         <v>225597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>204701</v>
+        <v>203489</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>246279</v>
+        <v>245889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5219636630549066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4736159530183995</v>
+        <v>0.4708121740733927</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5698149360895413</v>
+        <v>0.568911210773289</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>111266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96137</v>
+        <v>96742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127819</v>
+        <v>126841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5233122739797401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4521561555480306</v>
+        <v>0.4550051897642433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6011689487592368</v>
+        <v>0.5965684510307742</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -3901,19 +3901,19 @@
         <v>95346</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81201</v>
+        <v>80259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111264</v>
+        <v>111798</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4341981060396684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3697812103522958</v>
+        <v>0.3654946764602411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5066873176667157</v>
+        <v>0.5091203645934016</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -3922,19 +3922,19 @@
         <v>206612</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>185930</v>
+        <v>186320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>227508</v>
+        <v>228720</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4780363369450934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4301850639104587</v>
+        <v>0.431088789226711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5263840469816005</v>
+        <v>0.5291878259266073</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>123141</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>106118</v>
+        <v>105085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140810</v>
+        <v>140855</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4494523913215184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3873206285607635</v>
+        <v>0.3835500695992552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5139390868987372</v>
+        <v>0.5141063038823396</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -4047,19 +4047,19 @@
         <v>143793</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125224</v>
+        <v>127223</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160241</v>
+        <v>161020</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5134911864269619</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4471791514405697</v>
+        <v>0.454316944906518</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5722253079617149</v>
+        <v>0.5750070713866654</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>256</v>
@@ -4068,19 +4068,19 @@
         <v>266935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>243105</v>
+        <v>244161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>291124</v>
+        <v>291437</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4818214512986542</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.438808647837663</v>
+        <v>0.4407143412697971</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.525483180535098</v>
+        <v>0.5260484381879736</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>150840</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133171</v>
+        <v>133126</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167863</v>
+        <v>168896</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5505476086784816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4860609131012627</v>
+        <v>0.4858936961176604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6126793714392361</v>
+        <v>0.6164499304007445</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>131</v>
@@ -4118,19 +4118,19 @@
         <v>136238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119790</v>
+        <v>119011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154807</v>
+        <v>152808</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4865088135730382</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4277746920382852</v>
+        <v>0.4249929286133345</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5528208485594304</v>
+        <v>0.5456830550934818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>274</v>
@@ -4139,19 +4139,19 @@
         <v>287077</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>262888</v>
+        <v>262575</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>310907</v>
+        <v>309851</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5181785487013458</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.474516819464902</v>
+        <v>0.4739515618120261</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.561191352162337</v>
+        <v>0.5592856587302029</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>294599</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>264496</v>
+        <v>265828</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>318493</v>
+        <v>319457</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4444852071613581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.399065774257278</v>
+        <v>0.4010747698408176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4805352194126396</v>
+        <v>0.4819891212918126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>313</v>
@@ -4264,19 +4264,19 @@
         <v>336140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>309450</v>
+        <v>309284</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>363973</v>
+        <v>361680</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.484454125190509</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4459877314104854</v>
+        <v>0.445748387669208</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5245680652304532</v>
+        <v>0.5212628778752013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>587</v>
@@ -4285,19 +4285,19 @@
         <v>630739</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>591930</v>
+        <v>595403</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>670415</v>
+        <v>670782</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4649272786506055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4363202611375957</v>
+        <v>0.4388805244578345</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4941725723898449</v>
+        <v>0.4944432310652133</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>368189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>344295</v>
+        <v>343331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>398292</v>
+        <v>396960</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5555147928386419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5194647805873603</v>
+        <v>0.5180108787081874</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.600934225742722</v>
+        <v>0.5989252301591823</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>323</v>
@@ -4335,19 +4335,19 @@
         <v>357713</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>329880</v>
+        <v>332173</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>384403</v>
+        <v>384569</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.515545874809491</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4754319347695467</v>
+        <v>0.4787371221247986</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5540122685895145</v>
+        <v>0.5542516123307919</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>667</v>
@@ -4356,19 +4356,19 @@
         <v>725902</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>686226</v>
+        <v>685859</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>764711</v>
+        <v>761238</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5350727213493945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5058274276101552</v>
+        <v>0.5055567689347866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5636797388624044</v>
+        <v>0.5611194755421655</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>323465</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>298070</v>
+        <v>295085</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>353487</v>
+        <v>351994</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.415179445222599</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3825840741692089</v>
+        <v>0.3787517609292555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4537136812312778</v>
+        <v>0.4517969163200783</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>383</v>
@@ -4481,19 +4481,19 @@
         <v>415321</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>387581</v>
+        <v>384583</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>448394</v>
+        <v>447532</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5041198193031963</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4704489914561667</v>
+        <v>0.4668107523860656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5442650491360397</v>
+        <v>0.543218693492967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>685</v>
@@ -4502,19 +4502,19 @@
         <v>738786</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>697845</v>
+        <v>699114</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>781387</v>
+        <v>779464</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4608912491056117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4353499646670225</v>
+        <v>0.4361421142708907</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4874675711524284</v>
+        <v>0.4862682185537174</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>455633</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>425611</v>
+        <v>427104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>481028</v>
+        <v>484013</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.584820554777401</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5462863187687224</v>
+        <v>0.5482030836799218</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6174159258307911</v>
+        <v>0.6212482390707443</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>374</v>
@@ -4552,19 +4552,19 @@
         <v>408532</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>375459</v>
+        <v>376321</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>436272</v>
+        <v>439270</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4958801806968037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4557349508639604</v>
+        <v>0.456781306507033</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5295510085438334</v>
+        <v>0.5331892476139345</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>789</v>
@@ -4573,19 +4573,19 @@
         <v>864165</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>821564</v>
+        <v>823487</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>905106</v>
+        <v>903837</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5391087508943883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5125324288475719</v>
+        <v>0.5137317814462826</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5646500353329775</v>
+        <v>0.5638578857291094</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1534588</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1475591</v>
+        <v>1472934</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1593485</v>
+        <v>1591357</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4478221457369024</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4306056819988066</v>
+        <v>0.4298303422497715</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4650094289289327</v>
+        <v>0.4643886383334656</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1707</v>
@@ -4698,19 +4698,19 @@
         <v>1835841</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1775902</v>
+        <v>1769058</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1898971</v>
+        <v>1897674</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.515930694634338</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4990858184093719</v>
+        <v>0.4971624396607692</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5336722321268663</v>
+        <v>0.5333077586825593</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3151</v>
@@ -4719,19 +4719,19 @@
         <v>3370428</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3286198</v>
+        <v>3285508</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3460966</v>
+        <v>3455978</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4825176671571776</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4704590687935061</v>
+        <v>0.470360250276911</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4954792255067716</v>
+        <v>0.494765130717205</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1892191</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1833294</v>
+        <v>1835422</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1951188</v>
+        <v>1953845</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5521778542630976</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5349905710710674</v>
+        <v>0.5356113616665346</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5693943180011938</v>
+        <v>0.5701696577502285</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1591</v>
@@ -4769,19 +4769,19 @@
         <v>1722468</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1659338</v>
+        <v>1660635</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1782407</v>
+        <v>1789251</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4840693053656619</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4663277678731337</v>
+        <v>0.4666922413174407</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5009141815906282</v>
+        <v>0.502837560339231</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3356</v>
@@ -4790,19 +4790,19 @@
         <v>3614660</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3524122</v>
+        <v>3529110</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3698890</v>
+        <v>3699580</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5174823328428224</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5045207744932287</v>
+        <v>0.505234869282795</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.529540931206494</v>
+        <v>0.529639749723089</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>112326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>95033</v>
+        <v>96094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131065</v>
+        <v>130171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3823728262387381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3235035578577098</v>
+        <v>0.3271150460625961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4461634541164971</v>
+        <v>0.4431200530467241</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -5159,19 +5159,19 @@
         <v>119354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102251</v>
+        <v>104310</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135586</v>
+        <v>138223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4134146894773917</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3541749732627805</v>
+        <v>0.3613055385978944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4696368983998584</v>
+        <v>0.4787715193601391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>218</v>
@@ -5180,19 +5180,19 @@
         <v>231680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>210048</v>
+        <v>207906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>258604</v>
+        <v>255325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3977589771898071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3606192918609067</v>
+        <v>0.356942874499245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4439829929908873</v>
+        <v>0.4383531903640897</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>181435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162696</v>
+        <v>163590</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198728</v>
+        <v>197667</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6176271737612619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.553836545883503</v>
+        <v>0.5568799469532757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6764964421422898</v>
+        <v>0.6728849539374038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -5230,19 +5230,19 @@
         <v>169349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153117</v>
+        <v>150480</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186452</v>
+        <v>184393</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5865853105226083</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5303631016001416</v>
+        <v>0.5212284806398612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6458250267372195</v>
+        <v>0.6386944614021056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>325</v>
@@ -5251,19 +5251,19 @@
         <v>350784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>323860</v>
+        <v>327139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>372416</v>
+        <v>374558</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6022410228101929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5560170070091125</v>
+        <v>0.56164680963591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6393807081390932</v>
+        <v>0.6430571255007549</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>134083</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114500</v>
+        <v>114515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>155309</v>
+        <v>155547</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2667915486127139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2278276056927323</v>
+        <v>0.2278563553426558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3090262183597226</v>
+        <v>0.3095001043814323</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>170</v>
@@ -5376,19 +5376,19 @@
         <v>178044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>156703</v>
+        <v>156762</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>201855</v>
+        <v>200799</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3403742295573253</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2995747734441317</v>
+        <v>0.2996877001377779</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3858941789856051</v>
+        <v>0.3838752915990853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -5397,19 +5397,19 @@
         <v>312127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283297</v>
+        <v>282450</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>344080</v>
+        <v>342765</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3043185527258866</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2762100002873776</v>
+        <v>0.2753843956827448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3354716925708691</v>
+        <v>0.3341900234775517</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>368492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347266</v>
+        <v>347028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>388075</v>
+        <v>388060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7332084513872862</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6909737816402772</v>
+        <v>0.6904998956185677</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7721723943072676</v>
+        <v>0.7721436446573445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -5447,19 +5447,19 @@
         <v>345040</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321229</v>
+        <v>322285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366381</v>
+        <v>366322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6596257704426747</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.614105821014395</v>
+        <v>0.6161247084009147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7004252265558684</v>
+        <v>0.7003122998622221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -5468,19 +5468,19 @@
         <v>713532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>681579</v>
+        <v>682894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742362</v>
+        <v>743209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6956814472741134</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6645283074291309</v>
+        <v>0.6658099765224482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7237899997126225</v>
+        <v>0.7246156043172551</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>84254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69731</v>
+        <v>70274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99062</v>
+        <v>100273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.264480736015145</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2188896873520026</v>
+        <v>0.2205951357568565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3109630308916684</v>
+        <v>0.3147654648951735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -5593,19 +5593,19 @@
         <v>102034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86097</v>
+        <v>86004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118830</v>
+        <v>118960</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3033942055942289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2560058072581458</v>
+        <v>0.2557291954392727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3533352700231842</v>
+        <v>0.3537236059225654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -5614,19 +5614,19 @@
         <v>186289</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166219</v>
+        <v>164924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208586</v>
+        <v>209329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2844646567790957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2538182426186328</v>
+        <v>0.2518409412320029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3185135561629567</v>
+        <v>0.3196481220608421</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>234311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>219503</v>
+        <v>218292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>248834</v>
+        <v>248291</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.735519263984855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6890369691083318</v>
+        <v>0.6852345351048266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7811103126479977</v>
+        <v>0.7794048642431435</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -5664,19 +5664,19 @@
         <v>234275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217479</v>
+        <v>217349</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250212</v>
+        <v>250305</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6966057944057711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6466647299768161</v>
+        <v>0.6462763940774345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7439941927418549</v>
+        <v>0.7442708045607275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>470</v>
@@ -5685,19 +5685,19 @@
         <v>468585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446288</v>
+        <v>445545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>488655</v>
+        <v>489950</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7155353432209044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6814864438370434</v>
+        <v>0.6803518779391581</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7461817573813673</v>
+        <v>0.748159058767997</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>111498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93305</v>
+        <v>94061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129251</v>
+        <v>130003</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3013748163505643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2522012113693993</v>
+        <v>0.2542438222781704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3493612632432166</v>
+        <v>0.3513936406957336</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -5810,19 +5810,19 @@
         <v>153850</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134975</v>
+        <v>134517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174201</v>
+        <v>172956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3972542937613084</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3485168324483796</v>
+        <v>0.3473358081649653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4498016507141923</v>
+        <v>0.446588356341221</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -5831,19 +5831,19 @@
         <v>265348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239351</v>
+        <v>239423</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>291764</v>
+        <v>293361</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3504109852346826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3160810725131859</v>
+        <v>0.3161758348850808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3852961194109191</v>
+        <v>0.3874044288631431</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>258466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240713</v>
+        <v>239961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>276659</v>
+        <v>275903</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6986251836494357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6506387367567834</v>
+        <v>0.6486063593042661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7477987886306007</v>
+        <v>0.7457561777218296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>214</v>
@@ -5881,19 +5881,19 @@
         <v>233433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213082</v>
+        <v>214327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>252308</v>
+        <v>252766</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6027457062386915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5501983492858078</v>
+        <v>0.5534116436587792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6514831675516206</v>
+        <v>0.6526641918350349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>463</v>
@@ -5902,19 +5902,19 @@
         <v>491899</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>465483</v>
+        <v>463886</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>517896</v>
+        <v>517824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6495890147653174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6147038805890811</v>
+        <v>0.6125955711368569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6839189274868144</v>
+        <v>0.6838241651149194</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>90141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76406</v>
+        <v>76047</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103503</v>
+        <v>105618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4267620421745277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3617329097919608</v>
+        <v>0.360035243164183</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4900209868110429</v>
+        <v>0.5000346035172344</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -6027,19 +6027,19 @@
         <v>102832</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88355</v>
+        <v>88092</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118537</v>
+        <v>116906</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4704400956947211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4042085161165532</v>
+        <v>0.4030073859482176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5422856533705673</v>
+        <v>0.5348282061801508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -6048,19 +6048,19 @@
         <v>192973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>173089</v>
+        <v>172879</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214469</v>
+        <v>214189</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.448975343749875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4027120140037079</v>
+        <v>0.4022230495771868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4989875139990977</v>
+        <v>0.4983354219410853</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>121080</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107718</v>
+        <v>105603</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134815</v>
+        <v>135174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5732379578254723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.509979013188957</v>
+        <v>0.4999653964827656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6382670902080391</v>
+        <v>0.6399647568358172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>116</v>
@@ -6098,19 +6098,19 @@
         <v>115755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100050</v>
+        <v>101681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130232</v>
+        <v>130495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.529559904305279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4577143466294327</v>
+        <v>0.4651717938198492</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5957914838834468</v>
+        <v>0.5969926140517825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>238</v>
@@ -6119,19 +6119,19 @@
         <v>236835</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215339</v>
+        <v>215619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>256719</v>
+        <v>256929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5510246562501251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5010124860009023</v>
+        <v>0.5016645780589146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5972879859962921</v>
+        <v>0.5977769504228131</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>76649</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63289</v>
+        <v>61917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91887</v>
+        <v>92062</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2913063306493143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2405283156090022</v>
+        <v>0.2353151887038878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3492152390269482</v>
+        <v>0.349880570969278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -6244,19 +6244,19 @@
         <v>90479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75471</v>
+        <v>74352</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106984</v>
+        <v>107596</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3312867336484408</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2763339779754584</v>
+        <v>0.2722378640635681</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.391719182252146</v>
+        <v>0.3939569077739109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>160</v>
@@ -6265,19 +6265,19 @@
         <v>167129</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145558</v>
+        <v>146476</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189608</v>
+        <v>189671</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3116690199595217</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2714432402230891</v>
+        <v>0.2731546892192639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3535901949201293</v>
+        <v>0.3537067704034064</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>186474</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>171236</v>
+        <v>171061</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199834</v>
+        <v>201206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7086936693506857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6507847609730517</v>
+        <v>0.650119429030722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7594716843909978</v>
+        <v>0.7646848112961121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>180</v>
@@ -6315,19 +6315,19 @@
         <v>182636</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166131</v>
+        <v>165519</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197644</v>
+        <v>198763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6687132663515591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.608280817747854</v>
+        <v>0.6060430922260891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7236660220245416</v>
+        <v>0.7277621359364319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -6336,19 +6336,19 @@
         <v>369109</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>346630</v>
+        <v>346567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>390680</v>
+        <v>389762</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6883309800404783</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6464098050798708</v>
+        <v>0.6462932295965945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.728556759776912</v>
+        <v>0.7268453107807363</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>173918</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>150834</v>
+        <v>150003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197991</v>
+        <v>197413</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2648932968283804</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.229734836205447</v>
+        <v>0.2284691798502198</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3015588793363945</v>
+        <v>0.3006791673261356</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>238</v>
@@ -6461,19 +6461,19 @@
         <v>252156</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>225595</v>
+        <v>225343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>278875</v>
+        <v>279611</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3647600960138576</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3263377297721429</v>
+        <v>0.3259732361233259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4034096789126902</v>
+        <v>0.4044745003002924</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>393</v>
@@ -6482,19 +6482,19 @@
         <v>426074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>392990</v>
+        <v>388904</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>461312</v>
+        <v>460080</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3161135489398846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2915678627003974</v>
+        <v>0.2885360577706128</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3422570160722384</v>
+        <v>0.3413432843323405</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>482640</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>458567</v>
+        <v>459145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>505724</v>
+        <v>506555</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7351067031716196</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6984411206636061</v>
+        <v>0.6993208326738645</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7702651637945532</v>
+        <v>0.7715308201497801</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>408</v>
@@ -6532,19 +6532,19 @@
         <v>439138</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>412419</v>
+        <v>411683</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>465699</v>
+        <v>465951</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6352399039861425</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5965903210873097</v>
+        <v>0.5955254996997076</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6736622702278572</v>
+        <v>0.6740267638766742</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>833</v>
@@ -6553,19 +6553,19 @@
         <v>921778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>886540</v>
+        <v>887772</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>954862</v>
+        <v>958948</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6838864510601154</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6577429839277615</v>
+        <v>0.6586567156676595</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7084321372996026</v>
+        <v>0.7114639422293872</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>279821</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>254100</v>
+        <v>250057</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306578</v>
+        <v>305465</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3593979035988076</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3263623518368066</v>
+        <v>0.3211696179479286</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3937646618354064</v>
+        <v>0.3923341264392033</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>350</v>
@@ -6678,19 +6678,19 @@
         <v>374854</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>347775</v>
+        <v>346199</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>403546</v>
+        <v>405498</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4537263568996078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4209500936315567</v>
+        <v>0.4190422910644717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4884561952400525</v>
+        <v>0.4908183496275191</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>617</v>
@@ -6699,19 +6699,19 @@
         <v>654675</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>612013</v>
+        <v>615986</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>695542</v>
+        <v>695188</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.407960642670381</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.381376097891185</v>
+        <v>0.3838514884071407</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4334270801196503</v>
+        <v>0.4332064117450156</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>498762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>472005</v>
+        <v>473118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>524483</v>
+        <v>528526</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6406020964011925</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6062353381645935</v>
+        <v>0.6076658735607966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6736376481631932</v>
+        <v>0.6788303820520714</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>405</v>
@@ -6749,19 +6749,19 @@
         <v>451313</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>422621</v>
+        <v>420669</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>478392</v>
+        <v>479968</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5462736431003922</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5115438047599477</v>
+        <v>0.509181650372481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5790499063684432</v>
+        <v>0.5809577089355282</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>888</v>
@@ -6770,19 +6770,19 @@
         <v>950075</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>909208</v>
+        <v>909562</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>992737</v>
+        <v>988764</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5920393573296191</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5665729198803499</v>
+        <v>0.5667935882549844</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6186239021088149</v>
+        <v>0.6161485115928593</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1062691</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1010897</v>
+        <v>1009018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1117510</v>
+        <v>1112442</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3130762944019242</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2978175280825964</v>
+        <v>0.2972640182538714</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3292264321397705</v>
+        <v>0.3277334337782356</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1316</v>
@@ -6895,19 +6895,19 @@
         <v>1373604</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1316883</v>
+        <v>1315638</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1437430</v>
+        <v>1437138</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3875265367147412</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3715240385025101</v>
+        <v>0.3711729542213033</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4055332440909303</v>
+        <v>0.4054509934336432</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2327</v>
@@ -6916,19 +6916,19 @@
         <v>2436295</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2356779</v>
+        <v>2356518</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2515608</v>
+        <v>2519187</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3511071497173628</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.339647687970836</v>
+        <v>0.3396100978662916</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3625373781421774</v>
+        <v>0.3630531920100895</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2331659</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2276840</v>
+        <v>2281908</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2383453</v>
+        <v>2385332</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6869237055980758</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6707735678602293</v>
+        <v>0.6722665662217645</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.702182471917403</v>
+        <v>0.7027359817461286</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2022</v>
@@ -6966,19 +6966,19 @@
         <v>2170938</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2107112</v>
+        <v>2107404</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2227659</v>
+        <v>2228904</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6124734632852589</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5944667559090699</v>
+        <v>0.5945490065663568</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6284759614974899</v>
+        <v>0.6288270457786966</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4242</v>
@@ -6987,19 +6987,19 @@
         <v>4502597</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4423284</v>
+        <v>4419705</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4582113</v>
+        <v>4582374</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6488928502826372</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6374626218578228</v>
+        <v>0.6369468079899105</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6603523120291643</v>
+        <v>0.6603899021337084</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>18545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12171</v>
+        <v>11936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27731</v>
+        <v>27093</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05816442497574735</v>
+        <v>0.05816442497574736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0381729320954815</v>
+        <v>0.03743603203838694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08697211365503532</v>
+        <v>0.08497169305315493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -7356,19 +7356,19 @@
         <v>28670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20810</v>
+        <v>21498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37037</v>
+        <v>37251</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09071138338613247</v>
+        <v>0.09071138338613245</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06584073398618712</v>
+        <v>0.06801992878874998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1171835086691588</v>
+        <v>0.1178613242307678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -7377,19 +7377,19 @@
         <v>47216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37477</v>
+        <v>36863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58540</v>
+        <v>60034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07436653022015355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05902711350266787</v>
+        <v>0.05805984660373578</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09220192405926537</v>
+        <v>0.09455596446158901</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>300300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>291114</v>
+        <v>291752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306674</v>
+        <v>306909</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9418355750242525</v>
+        <v>0.9418355750242526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9130278863449647</v>
+        <v>0.915028306946845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9618270679045186</v>
+        <v>0.962563967961613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>488</v>
@@ -7427,19 +7427,19 @@
         <v>287391</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279024</v>
+        <v>278810</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295251</v>
+        <v>294563</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9092886166138676</v>
+        <v>0.9092886166138674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8828164913308413</v>
+        <v>0.8821386757692322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9341592660138128</v>
+        <v>0.93198007121125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>797</v>
@@ -7448,19 +7448,19 @@
         <v>587690</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>576366</v>
+        <v>574872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>597429</v>
+        <v>598043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9256334697798464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9077980759407349</v>
+        <v>0.9054440355384114</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9409728864973322</v>
+        <v>0.9419401533962644</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>62557</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47793</v>
+        <v>44981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81476</v>
+        <v>80821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1178874525859034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09006631981054386</v>
+        <v>0.08476645355608023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1535406095689517</v>
+        <v>0.1523073436636954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -7573,19 +7573,19 @@
         <v>112742</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97459</v>
+        <v>96554</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131742</v>
+        <v>131931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2063004815821763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1783348041772277</v>
+        <v>0.1766797013255981</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.241068441470467</v>
+        <v>0.2414126785669458</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>195</v>
@@ -7594,19 +7594,19 @@
         <v>175299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152737</v>
+        <v>150165</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>202659</v>
+        <v>202452</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1627443512392186</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1417983797932186</v>
+        <v>0.1394110619899108</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1881449613424165</v>
+        <v>0.1879531010345977</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>468090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449171</v>
+        <v>449826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482854</v>
+        <v>485666</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8821125474140965</v>
+        <v>0.8821125474140966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8464593904310485</v>
+        <v>0.8476926563363046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.909933680189456</v>
+        <v>0.9152335464439197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>572</v>
@@ -7644,19 +7644,19 @@
         <v>433752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>414752</v>
+        <v>414563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449035</v>
+        <v>449940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7936995184178236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7589315585295332</v>
+        <v>0.7585873214330543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8216651958227725</v>
+        <v>0.8233202986744019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>904</v>
@@ -7665,19 +7665,19 @@
         <v>901842</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>874482</v>
+        <v>874689</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>924404</v>
+        <v>926976</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8372556487607815</v>
+        <v>0.8372556487607816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8118550386575836</v>
+        <v>0.8120468989654022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8582016202067814</v>
+        <v>0.8605889380100891</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>39084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29625</v>
+        <v>28520</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52271</v>
+        <v>50924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1236870343260205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09375116638317869</v>
+        <v>0.09025562736775898</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1654175937013325</v>
+        <v>0.1611569835397833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -7790,19 +7790,19 @@
         <v>45707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36222</v>
+        <v>36836</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57304</v>
+        <v>58504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1282544098031544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.101638528040447</v>
+        <v>0.1033608020274772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1607952995446646</v>
+        <v>0.1641613673882397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -7811,19 +7811,19 @@
         <v>84792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69624</v>
+        <v>70274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100581</v>
+        <v>102651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1261078976153908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.10354872276467</v>
+        <v>0.1045165324549222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1495902555208792</v>
+        <v>0.1526697376464047</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>276909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>263722</v>
+        <v>265069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286368</v>
+        <v>287473</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8763129656739794</v>
+        <v>0.8763129656739795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8345824062986673</v>
+        <v>0.8388430164602171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9062488336168211</v>
+        <v>0.9097443726322411</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>462</v>
@@ -7861,19 +7861,19 @@
         <v>310674</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>299077</v>
+        <v>297877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320159</v>
+        <v>319545</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8717455901968456</v>
+        <v>0.8717455901968455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8392047004553355</v>
+        <v>0.8358386326117604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8983614719595532</v>
+        <v>0.896639197972523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>773</v>
@@ -7882,19 +7882,19 @@
         <v>587583</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571794</v>
+        <v>569724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>602751</v>
+        <v>602101</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8738921023846092</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8504097444791208</v>
+        <v>0.8473302623535953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8964512772353299</v>
+        <v>0.8954834675450778</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>61134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43789</v>
+        <v>44349</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81686</v>
+        <v>81651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1638343098423952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1173520230994111</v>
+        <v>0.1188511842912215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2189120626740836</v>
+        <v>0.218818183407205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -8007,19 +8007,19 @@
         <v>71947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58670</v>
+        <v>58887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86984</v>
+        <v>86526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1705059634884807</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1390416774651758</v>
+        <v>0.1395565454560418</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2061422706744991</v>
+        <v>0.2050577700444533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -8028,19 +8028,19 @@
         <v>133081</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111585</v>
+        <v>111792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160759</v>
+        <v>159282</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1673749423100776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1403390346009043</v>
+        <v>0.1405995111184927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2021858527333511</v>
+        <v>0.2003280261973608</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>312011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291459</v>
+        <v>291494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329356</v>
+        <v>328796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.836165690157605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7810879373259163</v>
+        <v>0.7811818165927953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8826479769005889</v>
+        <v>0.8811488157087785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -8078,19 +8078,19 @@
         <v>350014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334977</v>
+        <v>335435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363291</v>
+        <v>363074</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8294940365115195</v>
+        <v>0.8294940365115194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7938577293255009</v>
+        <v>0.7949422299555465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8609583225348243</v>
+        <v>0.8604434545439582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>742</v>
@@ -8099,19 +8099,19 @@
         <v>662026</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634348</v>
+        <v>635825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>683522</v>
+        <v>683315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8326250576899223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7978141472666489</v>
+        <v>0.7996719738026392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8596609653990956</v>
+        <v>0.8594004888815074</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>23234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15836</v>
+        <v>15969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32891</v>
+        <v>32628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1129684833447553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07699950075145073</v>
+        <v>0.07764774929361415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1599272100277047</v>
+        <v>0.1586466841200216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -8224,19 +8224,19 @@
         <v>27329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20630</v>
+        <v>20938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34967</v>
+        <v>35271</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1193812990147823</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0901217357357413</v>
+        <v>0.09146665305081464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1527495688087423</v>
+        <v>0.1540759281895646</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -8245,19 +8245,19 @@
         <v>50562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39696</v>
+        <v>40368</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63223</v>
+        <v>63473</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1163464540486276</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09134222255621513</v>
+        <v>0.09288998143153154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1454808781960282</v>
+        <v>0.1460541424571931</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>182431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172774</v>
+        <v>173037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189829</v>
+        <v>189696</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8870315166552446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8400727899722953</v>
+        <v>0.8413533158799784</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9230004992485492</v>
+        <v>0.9223522507063859</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -8295,19 +8295,19 @@
         <v>201589</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193951</v>
+        <v>193647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208288</v>
+        <v>207980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8806187009852178</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8472504311912578</v>
+        <v>0.8459240718104363</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9098782642642592</v>
+        <v>0.9085333469491855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>683</v>
@@ -8316,19 +8316,19 @@
         <v>384020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371359</v>
+        <v>371109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394886</v>
+        <v>394214</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8836535459513726</v>
+        <v>0.8836535459513725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.854519121803972</v>
+        <v>0.8539458575428068</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9086577774437852</v>
+        <v>0.9071100185684684</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>49500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40189</v>
+        <v>38984</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63221</v>
+        <v>62305</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1828529669898641</v>
+        <v>0.1828529669898642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1484604919973853</v>
+        <v>0.1440072972543032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2335389858672021</v>
+        <v>0.2301563019370524</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -8441,19 +8441,19 @@
         <v>62549</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52690</v>
+        <v>53123</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74190</v>
+        <v>75449</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2371512236436441</v>
+        <v>0.237151223643644</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1997726337328641</v>
+        <v>0.2014155687438923</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2812880096364607</v>
+        <v>0.2860626587958825</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>188</v>
@@ -8462,19 +8462,19 @@
         <v>112048</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98471</v>
+        <v>96820</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128771</v>
+        <v>127183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2096487125339655</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1842446964711217</v>
+        <v>0.1811567058392414</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2409372134575574</v>
+        <v>0.2379663055581787</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>221207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207486</v>
+        <v>208402</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230518</v>
+        <v>231723</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8171470330101359</v>
+        <v>0.8171470330101358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7664610141327978</v>
+        <v>0.7698436980629476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8515395080026147</v>
+        <v>0.8559927027456968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>343</v>
@@ -8512,19 +8512,19 @@
         <v>201201</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189560</v>
+        <v>188301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211060</v>
+        <v>210627</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7628487763563561</v>
+        <v>0.7628487763563558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7187119903635393</v>
+        <v>0.7139373412041176</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.800227366267136</v>
+        <v>0.7985844312561078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>643</v>
@@ -8533,19 +8533,19 @@
         <v>422409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>405686</v>
+        <v>407274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>435986</v>
+        <v>437637</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7903512874660344</v>
+        <v>0.7903512874660346</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7590627865424425</v>
+        <v>0.7620336944418212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8157553035288783</v>
+        <v>0.8188432941607586</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>41201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29417</v>
+        <v>29157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57142</v>
+        <v>57303</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05724903817020084</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04087512371314537</v>
+        <v>0.04051279538411749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07939906719378101</v>
+        <v>0.07962161855166811</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -8658,19 +8658,19 @@
         <v>63507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50541</v>
+        <v>50538</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77454</v>
+        <v>78714</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08225741768539845</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06546276935797318</v>
+        <v>0.0654585470331419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1003220179722393</v>
+        <v>0.1019541513027749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -8679,19 +8679,19 @@
         <v>104709</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85790</v>
+        <v>86354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128084</v>
+        <v>124869</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0701922047551648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05750984613142317</v>
+        <v>0.05788819055250859</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08586164896424199</v>
+        <v>0.08370658271212605</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>678486</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>662545</v>
+        <v>662384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>690270</v>
+        <v>690530</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9427509618297992</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9206009328062191</v>
+        <v>0.9203783814483321</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9591248762868546</v>
+        <v>0.9594872046158827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>876</v>
@@ -8729,19 +8729,19 @@
         <v>708550</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>694603</v>
+        <v>693343</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>721516</v>
+        <v>721519</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9177425823146015</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8996779820277605</v>
+        <v>0.898045848697225</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9345372306420268</v>
+        <v>0.9345414529668572</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1439</v>
@@ -8750,19 +8750,19 @@
         <v>1387035</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1363660</v>
+        <v>1366875</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1405954</v>
+        <v>1405390</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9298077952448351</v>
+        <v>0.9298077952448355</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9141383510357579</v>
+        <v>0.9162934172878737</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9424901538685767</v>
+        <v>0.9421118094474914</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>183620</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157908</v>
+        <v>158607</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>208063</v>
+        <v>208664</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2300794173876051</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1978613758812383</v>
+        <v>0.1987372703781332</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2607068090363402</v>
+        <v>0.2614601399405491</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>324</v>
@@ -8875,19 +8875,19 @@
         <v>261303</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238284</v>
+        <v>238809</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>287302</v>
+        <v>284009</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3143184610650337</v>
+        <v>0.3143184610650336</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2866293401125963</v>
+        <v>0.2872606613392407</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3455924073073764</v>
+        <v>0.341631186690496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>490</v>
@@ -8896,19 +8896,19 @@
         <v>444923</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>411566</v>
+        <v>411997</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>481141</v>
+        <v>481043</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2730586873642477</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2525870527193699</v>
+        <v>0.2528517533216585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2952864445491315</v>
+        <v>0.295226414910451</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>614452</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>590009</v>
+        <v>589408</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>640164</v>
+        <v>639465</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7699205826123949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7392931909636599</v>
+        <v>0.7385398600594508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8021386241187616</v>
+        <v>0.8012627296218666</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>738</v>
@@ -8946,19 +8946,19 @@
         <v>570028</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>544029</v>
+        <v>547322</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>593047</v>
+        <v>592522</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6856815389349664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6544075926926236</v>
+        <v>0.658368813309504</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7133706598874038</v>
+        <v>0.7127393386607594</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1334</v>
@@ -8967,19 +8967,19 @@
         <v>1184480</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1148262</v>
+        <v>1148360</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1217837</v>
+        <v>1217406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7269413126357522</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7047135554508684</v>
+        <v>0.7047735850895491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7474129472806296</v>
+        <v>0.7471482466783417</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>478875</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>435504</v>
+        <v>433463</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>522642</v>
+        <v>524341</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.135552554368907</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1232757738372352</v>
+        <v>0.1226979638777153</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1479414703008629</v>
+        <v>0.1484224299347068</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>959</v>
@@ -9092,19 +9092,19 @@
         <v>673754</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>630607</v>
+        <v>630275</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>716361</v>
+        <v>716454</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.180295013380705</v>
+        <v>0.1802950133807049</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1687488209205183</v>
+        <v>0.1686600352278033</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1916966172411666</v>
+        <v>0.1917213703148506</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1428</v>
@@ -9113,19 +9113,19 @@
         <v>1152629</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1097343</v>
+        <v>1094610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1221186</v>
+        <v>1217158</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1585521484238492</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1509471328248174</v>
+        <v>0.1505712127971679</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1679826492599588</v>
+        <v>0.1674285552091248</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3053887</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3010120</v>
+        <v>3008421</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3097258</v>
+        <v>3099299</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8644474456310932</v>
+        <v>0.8644474456310931</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8520585296991366</v>
+        <v>0.8515775700652937</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8767242261627648</v>
+        <v>0.8773020361222855</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4408</v>
@@ -9163,19 +9163,19 @@
         <v>3063200</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3020593</v>
+        <v>3020500</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3106347</v>
+        <v>3106679</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8197049866192951</v>
+        <v>0.819704986619295</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8083033827588335</v>
+        <v>0.8082786296851495</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8312511790794818</v>
+        <v>0.8313399647721966</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7315</v>
@@ -9184,19 +9184,19 @@
         <v>6117087</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6048530</v>
+        <v>6052558</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6172373</v>
+        <v>6175106</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8414478515761508</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8320173507400412</v>
+        <v>0.8325714447908753</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8490528671751828</v>
+        <v>0.8494287872028322</v>
       </c>
     </row>
     <row r="30">
